--- a/docs/PT2ov/PT2ov1_03.09.2024_output.xlsx
+++ b/docs/PT2ov/PT2ov1_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2607 +505,3091 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731077878.682569</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731077881.6027882</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731077878.682569.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731077881.6027882.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>240.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>247.04</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-6.539999999999992</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-2.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731077881.6169608</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731077883.28552</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731077881.6169608.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731077883.28552.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>247.04</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>247.15</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1100000000000136</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731077883.3354497</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731077884.7535663</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731077883.3354497.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731077884.7535663.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>246.87</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>247.57</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.6999999999999886</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731077886.6745234</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731077886.6745234.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+          <t>./test_images/SBERP1731077886.6745234.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>248.81</v>
       </c>
-      <c r="J6" t="n">
-        <v>248.81</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" t="n">
+        <v>246.15</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-2.659999999999997</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-1.07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731077889.7428067</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731077892.4708357</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731077889.7428067.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731077892.4708357.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>240.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>247.04</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-6.539999999999992</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-2.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731077892.4848874</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731077893.9808674</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731077892.4848874.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731077893.9808674.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>247.04</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>247.15</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1100000000000136</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731077894.0322628</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731077895.3973</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731077894.0322628.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731077895.3973.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>246.87</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>247.57</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.6999999999999886</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731077897.2422125</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731077900.1637535</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731077897.2422125.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731077900.1637535.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>248.81</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>241.22</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-7.590000000000003</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-3.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731077900.175378</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731077903.6176264</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731077900.175378.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731077903.6176264.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>241.22</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>247.8</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-6.580000000000013</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-2.73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731077903.6326413</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731077904.915727</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731077903.6326413.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731077904.915727.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>247.8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>247.64</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.160000000000025</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731077908.352796</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731077908.352796.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+          <t>./test_images/SBER1731077908.352796.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>249.59</v>
       </c>
-      <c r="J13" t="n">
-        <v>249.59</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>247.04</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-2.550000000000011</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-1.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731077914.6971114</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731077915.56344</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731077914.6971114.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731077915.56344.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>124.39</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>124.45</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731077916.3684938</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731077917.5942173</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731077916.3684938.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731077917.5942173.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>124.75</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>124.88</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731077921.7058582</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731077922.27753</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731077921.7058582.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731077922.27753.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>123.71</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>123.15</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.5599999999999881</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731077925.31748</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731077926.6274517</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731077925.31748.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731077926.6274517.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6210.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6216.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>6</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731077934.073397</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731077934.4330754</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731077934.073397.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731077934.4330754.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>457.55</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>457.2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.3500000000000227</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731077936.6567314</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731077936.7107918</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731077936.6567314.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731077936.7107918.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>465.15</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>464.25</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.8999999999999773</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731077936.8097432</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731077938.065111</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731077936.8097432.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731077938.065111.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>463.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>464.85</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.450000000000045</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731077941.674781</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731077944.101038</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731077941.674781.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731077944.101038.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>470.7</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>468.25</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-2.449999999999989</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731077945.1067297</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731077947.032462</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731077945.1067297.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731077947.032462.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>190.13</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>193.41</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-3.280000000000001</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-1.73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731077947.88573</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731077949.0453238</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731077947.88573.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731077949.0453238.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>193.86</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>195.08</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.219999999999999</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731077949.3754632</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731077949.5866604</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731077949.3754632.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731077949.5866604.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>194.66</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>195.12</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731077950.1153784</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731077951.8860037</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731077950.1153784.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731077951.8860037.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>195.35</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>195.86</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.5100000000000193</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731077955.38167</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731077956.0784736</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731077955.38167.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731077956.0784736.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>192.78</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>191.96</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.8199999999999932</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731077959.1857746</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731077961.352557</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731077959.1857746.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731077961.352557.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>966.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>970</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>3.200000000000045</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731077961.6592703</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731077962.720439</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731077961.6592703.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731077962.720439.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>964.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>968.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>3.600000000000023</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731077963.5262277</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731077963.745632</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731077963.5262277.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731077963.745632.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>968.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>971.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>3.399999999999977</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731077964.5344076</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731077966.8182654</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731077964.5344076.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731077966.8182654.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>972.2</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>965.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-6.400000000000091</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731077968.4980574</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731077969.8356137</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731077968.4980574.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731077969.8356137.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>11.962</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>11.988</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.0259999999999998</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731077969.850574</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731077971.0975552</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731077969.850574.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731077971.0975552.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>11.988</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>11.995</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.006999999999999673</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731077971.1853914</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731077971.2455978</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731077971.1853914.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731077971.2455978.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>11.987</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>11.984</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.003000000000000114</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731077971.3016016</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731077973.4553974</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731077971.3016016.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731077973.4553974.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>11.982</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>11.994</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.01200000000000045</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731077974.7558463</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731077976.0470738</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731077974.7558463.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731077976.0470738.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>12.038</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>12.049</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.01099999999999923</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731077976.7077208</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731077977.481285</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731077976.7077208.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731077977.481285.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>12.053</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>12.074</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.02099999999999902</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731077979.4556804</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731077979.7545114</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731077979.4556804.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731077979.7545114.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>103.72</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>104</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731077981.4577312</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731077982.313598</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731077981.4577312.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731077982.313598.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>105.24</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>106.18</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.9400000000000119</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731077983.2677073</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731077985.1652062</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731077983.2677073.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731077985.1652062.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>106.12</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>106.2</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731077986.185496</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731077987.1753185</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731077986.185496.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731077987.1753185.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>106.42</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>107.34</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.9200000000000017</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731077987.8554688</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731077988.1986134</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731077987.8554688.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731077988.1986134.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>107.14</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>107.12</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731077988.7303016</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731077988.7303016.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+          <t>./test_images/GMKN1731077988.7303016.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>107</v>
       </c>
-      <c r="J42" t="n">
-        <v>107</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
+      <c r="L42" t="n">
+        <v>105.66</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-1.340000000000003</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731077990.6762471</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731077991.2055676</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731077990.6762471.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731077991.2055676.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>126.56</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>126.62</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731077993.6908796</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731077994.9683955</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731077993.6908796.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731077994.9683955.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>129.66</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>130.3</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.6400000000000148</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731077995.88577</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731077996.9972992</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731077995.88577.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731077996.9972992.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>130.68</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>130.3</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.3799999999999955</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731078000.9919617</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731078001.467398</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731078000.9919617.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731078001.467398.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>128.32</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>127.22</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>1.099999999999994</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731078002.1524365</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731078003.8505187</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078002.1524365.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078003.8505187.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>41.015</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>41.235</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731078003.86523</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731078004.3217118</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078003.86523.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078004.3217118.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>41.235</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>41.55</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.3149999999999977</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731078004.4515646</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731078006.1281989</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078004.4515646.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078006.1281989.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>41.39</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>41.475</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.08500000000000085</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731078007.1680791</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731078009.1478581</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078007.1680791.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078009.1478581.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>41.645</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>41.62</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.02500000000000568</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731078013.3232732</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731078014.4282794</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078013.3232732.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078014.4282794.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>41.04</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>40.77</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.269999999999996</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731078015.3859544</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731078019.258042</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731078015.3859544.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731078019.258042.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1156.6</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1187.6</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-31</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-2.68</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731078019.2741146</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731078019.91159</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731078019.2741146.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731078019.91159.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1187.6</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1197.6</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>10</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731078020.9472504</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731078022.6241477</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731078020.9472504.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731078022.6241477.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1201.6</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1201.2</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.3999999999998636</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731078028.1653335</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731078028.1653335.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731078028.1653335.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1165.4</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1165.4</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,669 +3597,795 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731078029.275446</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731078030.3001966</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078029.275446.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078030.3001966.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>47.07</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>47.43</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.3599999999999994</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731078030.8786232</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731078031.7853875</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078030.8786232.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078031.7853875.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>47.46</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>47.86</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.3999999999999986</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731078031.8451357</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731078034.0701563</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078031.8451357.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078034.0701563.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>47.68</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>47.89</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.2100000000000009</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731078038.4353976</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731078039.0151484</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078038.4353976.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078039.0151484.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>48.39</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>48.58</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731078041.0693676</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731078042.4988556</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078041.0693676.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078042.4988556.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>48.64</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>48.73</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.08999999999999631</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731078042.9555566</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731078044.0764253</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078042.9555566.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078044.0764253.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>48.53</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>48.31</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731078045.2903383</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731078047.9223363</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731078045.2903383.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731078047.9223363.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>86.23</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>87.48</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-1.25</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731078047.938535</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731078048.1913106</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731078047.938535.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731078048.1913106.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>87.48</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>87.93000000000001</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.4500000000000028</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731078048.5603104</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731078049.6753569</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731078048.5603104.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731078049.6753569.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>87.91</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>88.26000000000001</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.3500000000000085</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731078052.7683485</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731078052.883356</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731078052.7683485.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731078052.883356.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>88.06</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>88.19</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731078054.0055785</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731078054.0055785.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+          <t>./test_images/VTBR1731078054.0055785.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>88.54000000000001</v>
       </c>
-      <c r="J66" t="n">
-        <v>88.54000000000001</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
+      <c r="L66" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-1.41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731078057.314176</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731078059.5804338</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SELG1731078057.314176.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SELG1731078059.5804338.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>46.48</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>47.65</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-1.170000000000002</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-2.52</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731078059.5956318</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731078062.0852928</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SELG1731078059.5956318.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SELG1731078062.0852928.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>47.65</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>47.71</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731078068.1151438</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731078068.1151438.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731078068.1151438.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>46.8</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>46.8</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3768,776 +4393,920 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731078071.0811923</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731078071.7756152</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731078071.0811923.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731078071.7756152.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>139.4</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>140.3</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.9000000000000057</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731078072.2356353</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731078074.3478162</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731078072.2356353.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731078074.3478162.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>139.64</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>139.9</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.2600000000000193</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731078075.9964533</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731078077.800693</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731078075.9964533.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731078077.800693.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>139.4</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>138.16</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-1.240000000000009</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731078077.8155005</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731078077.8155005.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731078077.8155005.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>138.16</v>
       </c>
-      <c r="J73" t="n">
-        <v>138.16</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
+      <c r="L73" t="n">
+        <v>138.84</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731078078.8683414</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731078081.370591</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731078078.8683414.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731078081.370591.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>0.2717</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.2793</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.007599999999999996</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-2.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731078081.3853116</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731078084.152687</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731078081.3853116.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731078084.152687.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>0.2793</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>0.2801</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.0008000000000000229</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731078084.6153798</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731078084.9153435</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731078084.6153798.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731078084.9153435.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>0.2801</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>0.2807</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.0005999999999999894</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731078090.4352303</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731078092.2703648</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731078090.4352303.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731078092.2703648.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>15.421</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>15.333</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.08799999999999919</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731078098.285501</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731078098.4353318</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731078098.285501.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731078098.4353318.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>15.174</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>15.075</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.0990000000000002</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731078100.7904098</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731078101.5404828</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078100.7904098.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078101.5404828.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>646.5</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>651.45</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>4.950000000000045</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731078101.7855883</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731078101.840596</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078101.7855883.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078101.840596.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>650.25</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>650.35</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731078102.0852957</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731078102.7405264</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078102.0852957.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078102.7405264.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>650.55</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>652.5</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>1.950000000000045</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731078103.7153604</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731078105.9403918</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078103.7153604.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078105.9403918.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>653.05</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>652.75</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.2999999999999545</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731078106.6556365</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731078108.8105578</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078106.6556365.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078108.8105578.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>652.85</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>652.25</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.6000000000000227</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731078111.705512</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731078112.0404503</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731078111.705512.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731078112.0404503.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>113.67</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>114.4</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.730000000000004</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731078112.6154847</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731078114.5455027</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731078112.6154847.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731078114.5455027.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>114.75</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>113.95</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.7999999999999972</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.7000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4551,7 +5320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4575,6 +5344,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4583,11 +5367,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-20.06000000000003</v>
+        <v>-22.61000000000004</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
+      <c r="D2" t="n">
+        <v>-3.230000000000006</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-9.26</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-1.32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4601,6 +5394,15 @@
       <c r="C3" t="n">
         <v>6</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.003666666666666411</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4609,11 +5411,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.200000000000017</v>
+        <v>0.8600000000000136</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.1433333333333356</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4627,6 +5438,15 @@
       <c r="C5" t="n">
         <v>6</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.1716666666666657</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4640,6 +5460,15 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="n">
+        <v>1.220000000000027</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4648,11 +5477,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3199999999999932</v>
+        <v>-1.569999999999993</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.3139999999999986</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.36</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4666,6 +5504,15 @@
       <c r="C8" t="n">
         <v>5</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.08499999999999801</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4679,6 +5526,15 @@
       <c r="C9" t="n">
         <v>5</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.05399999999999636</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4687,11 +5543,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5.72999999999999</v>
+        <v>-8.389999999999986</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
+      <c r="D10" t="n">
+        <v>-2.097499999999997</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-3.47</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4705,6 +5570,15 @@
       <c r="C11" t="n">
         <v>4</v>
       </c>
+      <c r="D11" t="n">
+        <v>-5.349999999999966</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.47</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4713,11 +5587,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07999999999998408</v>
+        <v>-0.7599999999999909</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.1899999999999977</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4731,6 +5614,15 @@
       <c r="C13" t="n">
         <v>4</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.3250000000000028</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4744,6 +5636,15 @@
       <c r="C14" t="n">
         <v>4</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.9499999999999886</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4757,6 +5658,15 @@
       <c r="C15" t="n">
         <v>4</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.5624999999999858</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4770,6 +5680,15 @@
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.3699999999999998</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4783,6 +5702,15 @@
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.002066666666666661</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.77</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4796,6 +5724,15 @@
       <c r="C18" t="n">
         <v>3</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.2499999999999953</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4809,6 +5746,15 @@
       <c r="C19" t="n">
         <v>2</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.005500000000000504</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4822,6 +5768,15 @@
       <c r="C20" t="n">
         <v>2</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.03499999999999659</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.06000000000000005</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4835,6 +5790,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4848,6 +5812,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
